--- a/frontend/src/Asset/Fg_template.xlsx
+++ b/frontend/src/Asset/Fg_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.CC230604\Desktop\BOM\Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator.CC230604\Desktop\New folder\Demo_1\frontend\src\Asset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BED030EC-1F4B-4998-89FF-347369D8698D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5661A616-972A-4464-AD18-729842A90454}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5856" yWindow="3528" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,59 +30,65 @@
     <t>Code_Fg</t>
   </si>
   <si>
-    <t>Name_Fg</t>
-  </si>
-  <si>
-    <t>Model</t>
-  </si>
-  <si>
-    <t>Part_No</t>
-  </si>
-  <si>
-    <t>OE_Part_No</t>
-  </si>
-  <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>Chem_Grade</t>
-  </si>
-  <si>
-    <t>Pcs_Per_Set</t>
-  </si>
-  <si>
-    <t>Box_No</t>
-  </si>
-  <si>
-    <t>Wright_Box</t>
-  </si>
-  <si>
-    <t>Box_Erp_No</t>
-  </si>
-  <si>
-    <t>Rivet_No</t>
-  </si>
-  <si>
-    <t>Weight_Revit_Per_Set</t>
-  </si>
-  <si>
-    <t>Num_Rivet_Per_Set</t>
-  </si>
-  <si>
-    <t>Revit_Erp_No</t>
-  </si>
-  <si>
-    <t>Remark</t>
+    <t xml:space="preserve"> Name_Fg</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Model</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Part_No</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> พาร์ทลูกค้า</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> โค้ดการขาย</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เกรดเคมี</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ชิ้นต่อชุด</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เบอร์กล่อง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> น้ำหนักกล่อง</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รหัสกล่อง_ERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> เบอร์รีเวท</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> นำหนักรีเวทต่อชุด</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> จำนวนรีเวทต่อชุด</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> รหัสรีเวท_ERP</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> หมายเหตุ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -108,8 +114,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -390,10 +399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -401,12 +410,18 @@
     <col min="5" max="5" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.21875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5546875" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.44140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -448,10 +463,10 @@
       <c r="N1" t="s">
         <v>13</v>
       </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
       <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
         <v>15</v>
       </c>
     </row>
